--- a/cc_iea_product_split.xlsx
+++ b/cc_iea_product_split.xlsx
@@ -35,15 +35,21 @@
     <t xml:space="preserve">Buildings</t>
   </si>
   <si>
+    <t xml:space="preserve">"Crude, NGL and feedstocks"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Memo: Coal, peat and oil shale"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Memo: Geothermal, solar/wind/other, heat, electricity"</t>
+  </si>
+  <si>
     <t xml:space="preserve">Biofuels and waste</t>
   </si>
   <si>
     <t xml:space="preserve">Coal and coal products</t>
   </si>
   <si>
-    <t xml:space="preserve">Crude, NGL and feedstocks</t>
-  </si>
-  <si>
     <t xml:space="preserve">Electricity</t>
   </si>
   <si>
@@ -57,12 +63,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hydro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memo: Coal, peat and oil shale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memo: Geothermal, solar/wind/other, heat, electricity</t>
   </si>
   <si>
     <t xml:space="preserve">Memo: Primary and secondary oil</t>
@@ -458,7 +458,7 @@
         <v>2019</v>
       </c>
       <c r="E2" t="n">
-        <v>28902961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -475,7 +475,7 @@
         <v>2019</v>
       </c>
       <c r="E3" t="n">
-        <v>3624663</v>
+        <v>3489463.4564</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         <v>2019</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>48062349.3059</v>
       </c>
     </row>
     <row r="5">
@@ -509,7 +509,7 @@
         <v>2019</v>
       </c>
       <c r="E5" t="n">
-        <v>39316775</v>
+        <v>28610141.5369</v>
       </c>
     </row>
     <row r="6">
@@ -526,7 +526,7 @@
         <v>2019</v>
       </c>
       <c r="E6" t="n">
-        <v>820507</v>
+        <v>3468368.7419</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         <v>2019</v>
       </c>
       <c r="E7" t="n">
-        <v>6335147</v>
+        <v>39540284.7583</v>
       </c>
     </row>
     <row r="8">
@@ -560,7 +560,7 @@
         <v>2019</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>818393.1554</v>
       </c>
     </row>
     <row r="9">
@@ -577,7 +577,7 @@
         <v>2019</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>6334608.4373</v>
       </c>
     </row>
     <row r="10">
@@ -594,7 +594,7 @@
         <v>2019</v>
       </c>
       <c r="E10" t="n">
-        <v>3645731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -611,7 +611,7 @@
         <v>2019</v>
       </c>
       <c r="E11" t="n">
-        <v>47792914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -628,7 +628,7 @@
         <v>2019</v>
       </c>
       <c r="E12" t="n">
-        <v>12088089</v>
+        <v>12240702.5421</v>
       </c>
     </row>
     <row r="13">
@@ -645,7 +645,7 @@
         <v>2019</v>
       </c>
       <c r="E13" t="n">
-        <v>30985026</v>
+        <v>30737634.465</v>
       </c>
     </row>
     <row r="14">
@@ -662,7 +662,7 @@
         <v>2019</v>
       </c>
       <c r="E14" t="n">
-        <v>29008894</v>
+        <v>29028823.5381</v>
       </c>
     </row>
     <row r="15">
@@ -696,7 +696,7 @@
         <v>2019</v>
       </c>
       <c r="E16" t="n">
-        <v>12088089</v>
+        <v>12240702.5421</v>
       </c>
     </row>
     <row r="17">
@@ -730,7 +730,7 @@
         <v>2019</v>
       </c>
       <c r="E18" t="n">
-        <v>21068</v>
+        <v>21094.7145</v>
       </c>
     </row>
     <row r="19">
@@ -747,7 +747,7 @@
         <v>2019</v>
       </c>
       <c r="E19" t="n">
-        <v>1320486</v>
+        <v>1369062.9549</v>
       </c>
     </row>
     <row r="20">
@@ -764,7 +764,7 @@
         <v>2019</v>
       </c>
       <c r="E20" t="n">
-        <v>121438590</v>
+        <v>121431480.4086</v>
       </c>
     </row>
     <row r="21">
@@ -781,7 +781,7 @@
         <v>2019</v>
       </c>
       <c r="E21" t="n">
-        <v>9895097</v>
+        <v>101954.1484</v>
       </c>
     </row>
     <row r="22">
@@ -798,7 +798,7 @@
         <v>2019</v>
       </c>
       <c r="E22" t="n">
-        <v>32556951</v>
+        <v>32253070.3553</v>
       </c>
     </row>
     <row r="23">
@@ -815,7 +815,7 @@
         <v>2019</v>
       </c>
       <c r="E23" t="n">
-        <v>65060</v>
+        <v>40460094.7617</v>
       </c>
     </row>
     <row r="24">
@@ -832,7 +832,7 @@
         <v>2019</v>
       </c>
       <c r="E24" t="n">
-        <v>34438971</v>
+        <v>9972387.3118</v>
       </c>
     </row>
     <row r="25">
@@ -849,7 +849,7 @@
         <v>2019</v>
       </c>
       <c r="E25" t="n">
-        <v>18625</v>
+        <v>32239078.8568</v>
       </c>
     </row>
     <row r="26">
@@ -866,7 +866,7 @@
         <v>2019</v>
       </c>
       <c r="E26" t="n">
-        <v>6066203</v>
+        <v>34354913.6153</v>
       </c>
     </row>
     <row r="27">
@@ -883,7 +883,7 @@
         <v>2019</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>18703.654</v>
       </c>
     </row>
     <row r="28">
@@ -900,7 +900,7 @@
         <v>2019</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>6068894.1383</v>
       </c>
     </row>
     <row r="29">
@@ -917,7 +917,7 @@
         <v>2019</v>
       </c>
       <c r="E29" t="n">
-        <v>32570854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -934,7 +934,7 @@
         <v>2019</v>
       </c>
       <c r="E30" t="n">
-        <v>40540487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -951,7 +951,7 @@
         <v>2019</v>
       </c>
       <c r="E31" t="n">
-        <v>12272893</v>
+        <v>12401519.615</v>
       </c>
     </row>
     <row r="32">
@@ -968,7 +968,7 @@
         <v>2019</v>
       </c>
       <c r="E32" t="n">
-        <v>9414049</v>
+        <v>9480662.1046</v>
       </c>
     </row>
     <row r="33">
@@ -985,7 +985,7 @@
         <v>2019</v>
       </c>
       <c r="E33" t="n">
-        <v>25699532</v>
+        <v>25928777.4019</v>
       </c>
     </row>
     <row r="34">
@@ -1019,7 +1019,7 @@
         <v>2019</v>
       </c>
       <c r="E35" t="n">
-        <v>12207833</v>
+        <v>12299565.4666</v>
       </c>
     </row>
     <row r="36">
@@ -1036,7 +1036,7 @@
         <v>2019</v>
       </c>
       <c r="E36" t="n">
-        <v>1729</v>
+        <v>1817.5024</v>
       </c>
     </row>
     <row r="37">
@@ -1053,7 +1053,7 @@
         <v>2019</v>
       </c>
       <c r="E37" t="n">
-        <v>12174</v>
+        <v>12173.996</v>
       </c>
     </row>
     <row r="38">
@@ -1070,7 +1070,7 @@
         <v>2019</v>
       </c>
       <c r="E38" t="n">
-        <v>16689</v>
+        <v>17583.3542</v>
       </c>
     </row>
     <row r="39">
@@ -1087,7 +1087,7 @@
         <v>2019</v>
       </c>
       <c r="E39" t="n">
-        <v>120978863</v>
+        <v>121015849.429</v>
       </c>
     </row>
     <row r="40">
@@ -1104,7 +1104,7 @@
         <v>2019</v>
       </c>
       <c r="E40" t="n">
-        <v>3986924</v>
+        <v>387.7354</v>
       </c>
     </row>
     <row r="41">
@@ -1121,7 +1121,7 @@
         <v>2019</v>
       </c>
       <c r="E41" t="n">
-        <v>40301</v>
+        <v>44259.6802</v>
       </c>
     </row>
     <row r="42">
@@ -1138,7 +1138,7 @@
         <v>2019</v>
       </c>
       <c r="E42" t="n">
-        <v>441</v>
+        <v>1384773.4865</v>
       </c>
     </row>
     <row r="43">
@@ -1155,7 +1155,7 @@
         <v>2019</v>
       </c>
       <c r="E43" t="n">
-        <v>1510371</v>
+        <v>3852889.8256</v>
       </c>
     </row>
     <row r="44">
@@ -1172,7 +1172,7 @@
         <v>2019</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>44214.7223</v>
       </c>
     </row>
     <row r="45">
@@ -1189,7 +1189,7 @@
         <v>2019</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1384773.4865</v>
       </c>
     </row>
     <row r="46">
@@ -1240,7 +1240,7 @@
         <v>2019</v>
       </c>
       <c r="E48" t="n">
-        <v>40346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1257,7 +1257,7 @@
         <v>2019</v>
       </c>
       <c r="E49" t="n">
-        <v>1510371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1274,7 +1274,7 @@
         <v>2019</v>
       </c>
       <c r="E50" t="n">
-        <v>110471587</v>
+        <v>111275000.0326</v>
       </c>
     </row>
     <row r="51">
@@ -1291,7 +1291,7 @@
         <v>2019</v>
       </c>
       <c r="E51" t="n">
-        <v>3986924</v>
+        <v>3852889.8256</v>
       </c>
     </row>
     <row r="52">
@@ -1308,7 +1308,7 @@
         <v>2019</v>
       </c>
       <c r="E52" t="n">
-        <v>4962974</v>
+        <v>4930034.0664</v>
       </c>
     </row>
     <row r="53">
@@ -1342,7 +1342,7 @@
         <v>2019</v>
       </c>
       <c r="E54" t="n">
-        <v>110471146</v>
+        <v>111274612.2972</v>
       </c>
     </row>
     <row r="55">
@@ -1376,7 +1376,7 @@
         <v>2019</v>
       </c>
       <c r="E56" t="n">
-        <v>45</v>
+        <v>44.9579</v>
       </c>
     </row>
     <row r="57">
@@ -1410,7 +1410,7 @@
         <v>2019</v>
       </c>
       <c r="E58" t="n">
-        <v>120972204</v>
+        <v>121486957.0787</v>
       </c>
     </row>
   </sheetData>

--- a/cc_iea_product_split.xlsx
+++ b/cc_iea_product_split.xlsx
@@ -102,14 +102,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.00"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,8 +139,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,7 +465,7 @@
       <c r="D2" t="n">
         <v>2019</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -474,7 +482,7 @@
       <c r="D3" t="n">
         <v>2019</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="1" t="n">
         <v>3489463.4564</v>
       </c>
     </row>
@@ -491,7 +499,7 @@
       <c r="D4" t="n">
         <v>2019</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="1" t="n">
         <v>48062349.3059</v>
       </c>
     </row>
@@ -508,7 +516,7 @@
       <c r="D5" t="n">
         <v>2019</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="1" t="n">
         <v>28610141.5369</v>
       </c>
     </row>
@@ -525,7 +533,7 @@
       <c r="D6" t="n">
         <v>2019</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="1" t="n">
         <v>3468368.7419</v>
       </c>
     </row>
@@ -542,7 +550,7 @@
       <c r="D7" t="n">
         <v>2019</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="1" t="n">
         <v>39540284.7583</v>
       </c>
     </row>
@@ -559,7 +567,7 @@
       <c r="D8" t="n">
         <v>2019</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="1" t="n">
         <v>818393.1554</v>
       </c>
     </row>
@@ -576,7 +584,7 @@
       <c r="D9" t="n">
         <v>2019</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="1" t="n">
         <v>6334608.4373</v>
       </c>
     </row>
@@ -593,7 +601,7 @@
       <c r="D10" t="n">
         <v>2019</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -610,7 +618,7 @@
       <c r="D11" t="n">
         <v>2019</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -627,7 +635,7 @@
       <c r="D12" t="n">
         <v>2019</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="1" t="n">
         <v>12240702.5421</v>
       </c>
     </row>
@@ -644,7 +652,7 @@
       <c r="D13" t="n">
         <v>2019</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="1" t="n">
         <v>30737634.465</v>
       </c>
     </row>
@@ -661,7 +669,7 @@
       <c r="D14" t="n">
         <v>2019</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="1" t="n">
         <v>29028823.5381</v>
       </c>
     </row>
@@ -678,7 +686,7 @@
       <c r="D15" t="n">
         <v>2019</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -695,7 +703,7 @@
       <c r="D16" t="n">
         <v>2019</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="1" t="n">
         <v>12240702.5421</v>
       </c>
     </row>
@@ -712,7 +720,7 @@
       <c r="D17" t="n">
         <v>2019</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -729,7 +737,7 @@
       <c r="D18" t="n">
         <v>2019</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="1" t="n">
         <v>21094.7145</v>
       </c>
     </row>
@@ -746,7 +754,7 @@
       <c r="D19" t="n">
         <v>2019</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="1" t="n">
         <v>1369062.9549</v>
       </c>
     </row>
@@ -763,7 +771,7 @@
       <c r="D20" t="n">
         <v>2019</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="1" t="n">
         <v>121431480.4086</v>
       </c>
     </row>
@@ -780,7 +788,7 @@
       <c r="D21" t="n">
         <v>2019</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="1" t="n">
         <v>101954.1484</v>
       </c>
     </row>
@@ -797,7 +805,7 @@
       <c r="D22" t="n">
         <v>2019</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="1" t="n">
         <v>32253070.3553</v>
       </c>
     </row>
@@ -814,7 +822,7 @@
       <c r="D23" t="n">
         <v>2019</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" s="1" t="n">
         <v>40460094.7617</v>
       </c>
     </row>
@@ -831,7 +839,7 @@
       <c r="D24" t="n">
         <v>2019</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24" s="1" t="n">
         <v>9972387.3118</v>
       </c>
     </row>
@@ -848,7 +856,7 @@
       <c r="D25" t="n">
         <v>2019</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25" s="1" t="n">
         <v>32239078.8568</v>
       </c>
     </row>
@@ -865,7 +873,7 @@
       <c r="D26" t="n">
         <v>2019</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26" s="1" t="n">
         <v>34354913.6153</v>
       </c>
     </row>
@@ -882,7 +890,7 @@
       <c r="D27" t="n">
         <v>2019</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27" s="1" t="n">
         <v>18703.654</v>
       </c>
     </row>
@@ -899,7 +907,7 @@
       <c r="D28" t="n">
         <v>2019</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28" s="1" t="n">
         <v>6068894.1383</v>
       </c>
     </row>
@@ -916,7 +924,7 @@
       <c r="D29" t="n">
         <v>2019</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -933,7 +941,7 @@
       <c r="D30" t="n">
         <v>2019</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -950,7 +958,7 @@
       <c r="D31" t="n">
         <v>2019</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31" s="1" t="n">
         <v>12401519.615</v>
       </c>
     </row>
@@ -967,7 +975,7 @@
       <c r="D32" t="n">
         <v>2019</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32" s="1" t="n">
         <v>9480662.1046</v>
       </c>
     </row>
@@ -984,7 +992,7 @@
       <c r="D33" t="n">
         <v>2019</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33" s="1" t="n">
         <v>25928777.4019</v>
       </c>
     </row>
@@ -1001,7 +1009,7 @@
       <c r="D34" t="n">
         <v>2019</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1018,7 +1026,7 @@
       <c r="D35" t="n">
         <v>2019</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35" s="1" t="n">
         <v>12299565.4666</v>
       </c>
     </row>
@@ -1035,7 +1043,7 @@
       <c r="D36" t="n">
         <v>2019</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36" s="1" t="n">
         <v>1817.5024</v>
       </c>
     </row>
@@ -1052,7 +1060,7 @@
       <c r="D37" t="n">
         <v>2019</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37" s="1" t="n">
         <v>12173.996</v>
       </c>
     </row>
@@ -1069,7 +1077,7 @@
       <c r="D38" t="n">
         <v>2019</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38" s="1" t="n">
         <v>17583.3542</v>
       </c>
     </row>
@@ -1086,7 +1094,7 @@
       <c r="D39" t="n">
         <v>2019</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39" s="1" t="n">
         <v>121015849.429</v>
       </c>
     </row>
@@ -1103,7 +1111,7 @@
       <c r="D40" t="n">
         <v>2019</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40" s="1" t="n">
         <v>387.7354</v>
       </c>
     </row>
@@ -1120,7 +1128,7 @@
       <c r="D41" t="n">
         <v>2019</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41" s="1" t="n">
         <v>44259.6802</v>
       </c>
     </row>
@@ -1137,7 +1145,7 @@
       <c r="D42" t="n">
         <v>2019</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42" s="1" t="n">
         <v>1384773.4865</v>
       </c>
     </row>
@@ -1154,7 +1162,7 @@
       <c r="D43" t="n">
         <v>2019</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43" s="1" t="n">
         <v>3852889.8256</v>
       </c>
     </row>
@@ -1171,7 +1179,7 @@
       <c r="D44" t="n">
         <v>2019</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44" s="1" t="n">
         <v>44214.7223</v>
       </c>
     </row>
@@ -1188,7 +1196,7 @@
       <c r="D45" t="n">
         <v>2019</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45" s="1" t="n">
         <v>1384773.4865</v>
       </c>
     </row>
@@ -1205,7 +1213,7 @@
       <c r="D46" t="n">
         <v>2019</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1222,7 +1230,7 @@
       <c r="D47" t="n">
         <v>2019</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1239,7 +1247,7 @@
       <c r="D48" t="n">
         <v>2019</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1256,7 +1264,7 @@
       <c r="D49" t="n">
         <v>2019</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1273,7 +1281,7 @@
       <c r="D50" t="n">
         <v>2019</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50" s="1" t="n">
         <v>111275000.0326</v>
       </c>
     </row>
@@ -1290,7 +1298,7 @@
       <c r="D51" t="n">
         <v>2019</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51" s="1" t="n">
         <v>3852889.8256</v>
       </c>
     </row>
@@ -1307,7 +1315,7 @@
       <c r="D52" t="n">
         <v>2019</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52" s="1" t="n">
         <v>4930034.0664</v>
       </c>
     </row>
@@ -1324,7 +1332,7 @@
       <c r="D53" t="n">
         <v>2019</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1341,7 +1349,7 @@
       <c r="D54" t="n">
         <v>2019</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54" s="1" t="n">
         <v>111274612.2972</v>
       </c>
     </row>
@@ -1358,7 +1366,7 @@
       <c r="D55" t="n">
         <v>2019</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1375,7 +1383,7 @@
       <c r="D56" t="n">
         <v>2019</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56" s="1" t="n">
         <v>44.9579</v>
       </c>
     </row>
@@ -1392,7 +1400,7 @@
       <c r="D57" t="n">
         <v>2019</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1409,7 +1417,7 @@
       <c r="D58" t="n">
         <v>2019</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58" s="1" t="n">
         <v>121486957.0787</v>
       </c>
     </row>
